--- a/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,47%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 7,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 9,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 5,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 11,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 30,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 39,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,88; 29,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,06; 76,43</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,85%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 3,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 1,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 2,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 0,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,3; 48,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,66; 21,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,46; 35,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,28; 3,47</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,07%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 2,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 2,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 0,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,25; 33,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,05; 46,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,98; 52,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,22; 13,43</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 4,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 2,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 2,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 35,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,1; 36,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 27,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 30,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>46,79%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,96</t>
+          <t>4,6; 12,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,06; 76,43</t>
+          <t>23,02; 78,52</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,85%</t>
+          <t>-10,44%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,28</t>
+          <t>-3,41; 1,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 3,47</t>
+          <t>-36,6; 21,96</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,07%</t>
+          <t>-16,73%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,98</t>
+          <t>-4,11; 1,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,22; 13,43</t>
+          <t>-40,43; 16,26</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>15,99%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,96</t>
+          <t>-0,44; 4,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 30,87</t>
+          <t>-4,05; 52,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 7,45</t>
+          <t>-1,79; 7,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,94</t>
+          <t>0,9; 9,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,22</t>
+          <t>-4,76; 5,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,18</t>
+          <t>4,29; 11,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 30,12</t>
+          <t>-6,02; 29,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 39,41</t>
+          <t>2,74; 37,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 29,95</t>
+          <t>-20,15; 27,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,02; 78,52</t>
+          <t>20,17; 75,56</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,12</t>
+          <t>-1,48; 3,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,98</t>
+          <t>-2,32; 2,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,66</t>
+          <t>-1,32; 2,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,57</t>
+          <t>-3,24; 2,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 48,08</t>
+          <t>-17,18; 47,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 21,07</t>
+          <t>-20,03; 21,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 35,26</t>
+          <t>-13,88; 35,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 21,96</t>
+          <t>-34,91; 30,46</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 2,83</t>
+          <t>-5,37; 2,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 2,98</t>
+          <t>-5,38; 2,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,1</t>
+          <t>-3,82; 2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,11</t>
+          <t>-4,24; 1,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,25; 33,97</t>
+          <t>-42,32; 34,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 46,36</t>
+          <t>-49,33; 44,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,98; 52,12</t>
+          <t>-41,96; 51,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 16,26</t>
+          <t>-41,02; 19,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,38</t>
+          <t>0,54; 4,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,22</t>
+          <t>1,23; 5,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,69</t>
+          <t>-0,82; 2,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,12</t>
+          <t>-0,64; 3,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 35,0</t>
+          <t>3,4; 36,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 36,99</t>
+          <t>7,69; 38,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 27,59</t>
+          <t>-6,81; 27,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 52,15</t>
+          <t>-5,38; 47,65</t>
         </is>
       </c>
     </row>
